--- a/data/PlanesEstudio/IND-1706 Habilidades blandas en la gestion de tecnologia.xlsx
+++ b/data/PlanesEstudio/IND-1706 Habilidades blandas en la gestion de tecnologia.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alegu\Desktop\DUAL\Dual\data\PlanesEstudio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F1D06DD-8FEE-4101-BDDC-1D2C16D67D59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{264D24D6-9DEF-4B46-9F88-3F2C4EDFFABC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" tabRatio="307" firstSheet="3" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="60" windowWidth="13395" windowHeight="12840" tabRatio="307" firstSheet="6" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Generales" sheetId="1" r:id="rId1"/>
@@ -98,27 +98,6 @@
     <t>Video documental</t>
   </si>
   <si>
-    <t>Habilidades para la solucion de problemas</t>
-  </si>
-  <si>
-    <t>Habilidad para buscar, procesar y analizar informacion de diversas fuentes</t>
-  </si>
-  <si>
-    <t>Habilidades en el uso de las tecnologias de la informacion de diversas fuentes</t>
-  </si>
-  <si>
-    <t>Capacidad de analisis, sintesis, organizar tiempo y planificar</t>
-  </si>
-  <si>
-    <t>Compromiso etico,preservacion del ambiente e identificar plantear y resolver problemas, Liderazgo y creatividad</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Consorcios, Asociaciones estratégicas, Alianzas tecnológicas </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Habilidades Blandas en la Gestión de Tecnología </t>
-  </si>
-  <si>
     <t xml:space="preserve">IND-1706 </t>
   </si>
   <si>
@@ -146,12 +125,6 @@
     <t xml:space="preserve">Definición e importancia de las habilidades </t>
   </si>
   <si>
-    <t>Habilidades tradicionales, Habilidades con enfoque a las organizaciones</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  Habilidades contemporáneas</t>
-  </si>
-  <si>
     <t xml:space="preserve">Habilidades con enfoque a las personas </t>
   </si>
   <si>
@@ -176,69 +149,24 @@
     <t>Comunicación</t>
   </si>
   <si>
-    <t xml:space="preserve">Conceptos básicos sobre comunicación,¿Qué es la comunicación? ,  Proceso de la comunicación </t>
-  </si>
-  <si>
-    <t>Comunicación interpersonal, Comunicación verbal,Comunicación no verbal</t>
-  </si>
-  <si>
     <t xml:space="preserve">Modelo de relaciones en la comunicación </t>
   </si>
   <si>
-    <t>Comunicación asertiva,Impacto de una comunicación efectiva en la gestion de tecnologia</t>
-  </si>
-  <si>
     <t xml:space="preserve">Desarrolla y aplica habilidades de comunicación para el desempeño eficiente en la gestión de tecnología. </t>
   </si>
   <si>
     <t>Analizar y elaborar mapa mental sobre los distintos tipos de comunicación.</t>
   </si>
   <si>
-    <t xml:space="preserve">Investigar en qué consiste el Modelo Relaciones o por su término en inglés “Relations”. </t>
-  </si>
-  <si>
     <t xml:space="preserve">Desarrollar un caso de estudio de innovación tecnológica en su área de especialidad donde aplique las habilidades de comunicación. </t>
   </si>
   <si>
-    <t>Manejo del conflicto,Definición de Conflicto, Tipos de conflicto, El proceso del conflicto</t>
-  </si>
-  <si>
-    <t>Negociacion</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> La Negociación,  ¿Qué es la negociación?, Lo que no es la negociación, Tipos de negociaciones , Elementos fundamentales de la negociacion</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Requerimientos para una negociación efectiva,  El proceso de la negociación,Estrategias de la negociación </t>
-  </si>
-  <si>
     <t>Impacto de una negociación efectiva en la gestión de tecnología</t>
   </si>
   <si>
-    <t>Liderazgo e integracion de equipos de alto rendimiento</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Liderazgo y coaching,Definición de liderazgo </t>
-  </si>
-  <si>
-    <t>Estilos de liderazgo, Coaching,  El rol del coach,Principios del coaching, Metodología del coaching</t>
-  </si>
-  <si>
-    <t>El coaching para el desarrollo del liderazgo ,Equipos de alto rendimiento,  ¿Qué es un equipo de alto rendimiento?</t>
-  </si>
-  <si>
-    <t>Equipos de alto rendimiento,¿Qué es un equipo de alto alto rendimiento,Formación de equipos de alto rendimiento , Estrategias que fomentan el trabajo en equipo</t>
-  </si>
-  <si>
     <t>Trabajo con redes de contactos (NETWORKING)</t>
   </si>
   <si>
-    <t>Redes ,Definición e importancia de las redes de contactos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Redes de Contactos, Redes empresariales,Redes científicas y académicas , Redes gubernamentales </t>
-  </si>
-  <si>
     <t xml:space="preserve">Ventajas funcionales del “Networking” </t>
   </si>
   <si>
@@ -248,18 +176,9 @@
     <t xml:space="preserve">Impacto del “Networking” </t>
   </si>
   <si>
-    <t>La Persuasion</t>
-  </si>
-  <si>
-    <t>Anatomía de la persuasión, Definición y objetivo, Contenido de una propuesta persuasiva</t>
-  </si>
-  <si>
     <t xml:space="preserve">Discurso de alto impacto “Elevator pitch", Definición y objetivo, Discursos para expertos de opinión y potencial licenciamiento </t>
   </si>
   <si>
-    <t xml:space="preserve">Presentación de alto impacto “Blitz”,Definición y objetivo,  Contenido </t>
-  </si>
-  <si>
     <t xml:space="preserve">Actividades de cabildeo </t>
   </si>
   <si>
@@ -284,24 +203,12 @@
     <t xml:space="preserve">Elaborar un cuadro comparativo entre las características de un equipo de trabajo efectivo y el que no lo es. </t>
   </si>
   <si>
-    <t xml:space="preserve">Desarrollar un caso de estudio de innovación tecnológica en su área de especialidad donde se trabaje con habilidades de liderazgo e integración de equipos de alto rendimiento. </t>
-  </si>
-  <si>
     <t xml:space="preserve">Desarrolla y aplica habilidades de liderazgo e integración de equipos de alto rendimiento para el desempeño eficiente en la gestión de tecnología. </t>
   </si>
   <si>
-    <t xml:space="preserve">Desarrolla y aplica habilidades de Negociación para el desempeño eficiente en la gestión de tecnología. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Desarrolla y aplica habilidades en el Trabajo con Redes de Contactos “Networking”  para el desempeño eficiente en la gestión de tecnología. </t>
-  </si>
-  <si>
     <t>Discutir en plenaria la importancia del “Networking”</t>
   </si>
   <si>
-    <t xml:space="preserve">Elaborar un mapa mental sobre las Redes involucradas en su contexto. </t>
-  </si>
-  <si>
     <t>Desarrollar un caso de estudio de innovación tecnológica en su área de especialidad donde se trabaje con redes de contactos.</t>
   </si>
   <si>
@@ -314,12 +221,6 @@
     <t xml:space="preserve">Analizar en equipo los beneficios de desarrollar una presentación de alto impacto “Blitz”. </t>
   </si>
   <si>
-    <t xml:space="preserve">Desarrollar un caso de estudio de innovación tecnológica en su área de especialidad donde se trabaje con habilidades persuasión. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Realizar práctica INTEGRADORA una vez concluido el tema de la persuasión donde identifica las habilidades blandas a través de un caso de estudio. </t>
-  </si>
-  <si>
     <t>IND-1706T01CE01</t>
   </si>
   <si>
@@ -558,6 +459,105 @@
   </si>
   <si>
     <t>IND-1706T06CEO1A4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Habilidades blandas en la gestión de tecnología </t>
+  </si>
+  <si>
+    <t>Habilidades tradicionales, habilidades con enfoque a las organizaciones</t>
+  </si>
+  <si>
+    <t>Habilidades contemporáneas</t>
+  </si>
+  <si>
+    <t>Capacidad de análisis, síntesis, organizar tiempo y planificar</t>
+  </si>
+  <si>
+    <t>Habilidades para la solución de problemas</t>
+  </si>
+  <si>
+    <t>Habilidad para buscar, procesar y analizar información de diversas fuentes</t>
+  </si>
+  <si>
+    <t>Habilidades en el uso de las tecnologías de la información de diversas fuentes</t>
+  </si>
+  <si>
+    <t>Compromiso ético, preservación del ambiente e identificar plantear y resolver problemas, liderazgo y creatividad</t>
+  </si>
+  <si>
+    <t>Conceptos básicos sobre comunicación, ¿Qué es la comunicación?,  proceso de la comunicación</t>
+  </si>
+  <si>
+    <t>Comunicación interpersonal, comunicación verbal y comunicación no verbal</t>
+  </si>
+  <si>
+    <t>Comunicación asertiva, impacto de una comunicación efectiva en la gestión de tecnología</t>
+  </si>
+  <si>
+    <t>Investigar en qué consiste el modelo Relaciones o por su término en inglés “Relations”.</t>
+  </si>
+  <si>
+    <t>Negociación</t>
+  </si>
+  <si>
+    <t>Manejo del conflicto, Definición de conflicto, tipos de conflicto, el proceso del conflicto</t>
+  </si>
+  <si>
+    <t>La negociación,  ¿qué es la negociación?, lo que no es la negociación, tipos de negociaciones, elementos fundamentales de la negociación</t>
+  </si>
+  <si>
+    <t>Requerimientos para una negociación efectiva, el proceso de la negociación, Estrategias de la negociación</t>
+  </si>
+  <si>
+    <t>Desarrolla y aplica habilidades de negociación para el desempeño eficiente en la gestión de tecnología.</t>
+  </si>
+  <si>
+    <t>Liderazgo e integración de equipos de alto rendimiento</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Liderazgo y coaching, Definición de liderazgo </t>
+  </si>
+  <si>
+    <t>Estilos de liderazgo, coaching, el rol del coach, Principios del coaching, metodología del coaching</t>
+  </si>
+  <si>
+    <t>Consorcios, asociaciones estratégicas, alianzas tecnológicas</t>
+  </si>
+  <si>
+    <t>El coaching para el desarrollo del liderazgo,Equipos de alto rendimiento,  ¿qué es un equipo de alto rendimiento?</t>
+  </si>
+  <si>
+    <t>Equipos de alto rendimiento, que es un equipo de alto rendimiento, Formación de equipos de alto rendimiento, estrategias que fomentan el trabajo en equipo?</t>
+  </si>
+  <si>
+    <t>Desarrollar un caso de estudio de innovación tecnológica en su área de especialidad, donde se trabaje con habilidades de liderazgo e integración de equipos de alto rendimiento.</t>
+  </si>
+  <si>
+    <t>Redes, Definición e importancia de las redes de contactos</t>
+  </si>
+  <si>
+    <t>Redes de contactos, redes empresariales, redes científicas y académicas, redes gubernamentales</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Desarrolla y aplica habilidades en el trabajo con redes de contactos “Networking”  para el desempeño eficiente en la gestión de tecnología. </t>
+  </si>
+  <si>
+    <t>Elaborar un mapa mental sobre las redes involucradas en su contexto.</t>
+  </si>
+  <si>
+    <t>La Persuasión</t>
+  </si>
+  <si>
+    <t>Anatomía de la persuasión, definición y objetivo, contenido de una propuesta persuasiva</t>
+  </si>
+  <si>
+    <t>Presentación de alto impacto “Blitz”, definición y objetivo,  contenido</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Desarrollar un caso de estudio de innovación tecnológica en su área de especialidad donde se trabaje con habilidades de persuasión. </t>
+  </si>
+  <si>
+    <t>Realizar práctica integradora una vez concluido el tema de la persuasión, donde identifica las habilidades blandas a través de un caso de estudio.</t>
   </si>
 </sst>
 </file>
@@ -1143,8 +1143,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G48"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView topLeftCell="B7" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1159,7 +1159,7 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>24</v>
+        <v>139</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
@@ -1172,7 +1172,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
@@ -1246,7 +1246,7 @@
         <v>14</v>
       </c>
       <c r="C8" s="17" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
@@ -1304,7 +1304,7 @@
         <v>2</v>
       </c>
       <c r="C14" s="17" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
@@ -1315,7 +1315,7 @@
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="16" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
@@ -1326,7 +1326,7 @@
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="16" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
@@ -1337,7 +1337,7 @@
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="16" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
@@ -1348,7 +1348,7 @@
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="29" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
@@ -1635,8 +1635,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:M65"/>
   <sheetViews>
-    <sheetView topLeftCell="B24" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C40" sqref="C40"/>
+    <sheetView topLeftCell="B21" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D26" sqref="D26:D35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1668,7 +1668,7 @@
         <v>0</v>
       </c>
       <c r="C2" s="27" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="D2" s="1"/>
       <c r="E2" s="6"/>
@@ -1764,10 +1764,10 @@
         <v>6</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>95</v>
+        <v>62</v>
       </c>
       <c r="D8" s="28" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="E8" s="6"/>
       <c r="F8" s="1"/>
@@ -1782,10 +1782,10 @@
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="8" t="s">
-        <v>96</v>
+        <v>63</v>
       </c>
       <c r="D9" s="26" t="s">
-        <v>34</v>
+        <v>140</v>
       </c>
       <c r="E9" s="6"/>
       <c r="F9" s="1"/>
@@ -1800,10 +1800,10 @@
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="8" t="s">
-        <v>97</v>
+        <v>64</v>
       </c>
       <c r="D10" s="26" t="s">
-        <v>35</v>
+        <v>141</v>
       </c>
       <c r="E10" s="6"/>
       <c r="F10" s="1"/>
@@ -1818,10 +1818,10 @@
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="8" t="s">
-        <v>98</v>
+        <v>65</v>
       </c>
       <c r="D11" s="24" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="E11" s="6"/>
       <c r="F11" s="1"/>
@@ -1836,10 +1836,10 @@
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="8" t="s">
-        <v>99</v>
+        <v>66</v>
       </c>
       <c r="D12" s="24" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="E12" s="6"/>
       <c r="F12" s="1"/>
@@ -1954,10 +1954,10 @@
         <v>3</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>92</v>
+        <v>59</v>
       </c>
       <c r="D20" s="28" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
@@ -2039,10 +2039,10 @@
         <v>5</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>93</v>
+        <v>60</v>
       </c>
       <c r="D26" s="23" t="s">
-        <v>21</v>
+        <v>142</v>
       </c>
       <c r="E26" s="6"/>
       <c r="F26" s="1"/>
@@ -2057,10 +2057,10 @@
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
       <c r="C27" s="8" t="s">
-        <v>94</v>
+        <v>61</v>
       </c>
       <c r="D27" s="24" t="s">
-        <v>18</v>
+        <v>143</v>
       </c>
       <c r="E27" s="6"/>
       <c r="F27" s="1"/>
@@ -2075,10 +2075,10 @@
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
       <c r="C28" s="8" t="s">
-        <v>100</v>
+        <v>67</v>
       </c>
       <c r="D28" s="24" t="s">
-        <v>19</v>
+        <v>144</v>
       </c>
       <c r="E28" s="6"/>
       <c r="F28" s="1"/>
@@ -2093,10 +2093,10 @@
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
       <c r="C29" s="8" t="s">
-        <v>101</v>
+        <v>68</v>
       </c>
       <c r="D29" s="24" t="s">
-        <v>20</v>
+        <v>145</v>
       </c>
       <c r="E29" s="6"/>
       <c r="F29" s="1"/>
@@ -2111,10 +2111,10 @@
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
       <c r="C30" s="8" t="s">
-        <v>102</v>
+        <v>69</v>
       </c>
       <c r="D30" s="26" t="s">
-        <v>22</v>
+        <v>146</v>
       </c>
       <c r="E30" s="6"/>
       <c r="F30" s="1"/>
@@ -2215,10 +2215,10 @@
         <v>4</v>
       </c>
       <c r="C37" s="7" t="s">
-        <v>103</v>
+        <v>70</v>
       </c>
       <c r="D37" s="23" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="E37" s="11">
         <v>0.5</v>
@@ -2242,10 +2242,10 @@
       <c r="A38" s="1"/>
       <c r="B38" s="1"/>
       <c r="C38" s="8" t="s">
-        <v>104</v>
+        <v>71</v>
       </c>
       <c r="D38" s="24" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="E38" s="12">
         <v>0.5</v>
@@ -2269,10 +2269,10 @@
       <c r="A39" s="1"/>
       <c r="B39" s="1"/>
       <c r="C39" s="8" t="s">
-        <v>105</v>
+        <v>72</v>
       </c>
       <c r="D39" s="26" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="E39" s="11">
         <v>0.5</v>
@@ -2296,10 +2296,10 @@
       <c r="A40" s="1"/>
       <c r="B40" s="1"/>
       <c r="C40" s="8" t="s">
-        <v>106</v>
+        <v>73</v>
       </c>
       <c r="D40" s="26" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="E40" s="12">
         <v>0.5</v>
@@ -2686,8 +2686,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:M65"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C39" sqref="C39"/>
+    <sheetView topLeftCell="D22" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D39" sqref="D39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2719,7 +2719,7 @@
         <v>0</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="D2" s="1"/>
       <c r="E2" s="6"/>
@@ -2815,10 +2815,10 @@
         <v>6</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>107</v>
+        <v>74</v>
       </c>
       <c r="D8" s="28" t="s">
-        <v>44</v>
+        <v>147</v>
       </c>
       <c r="E8" s="6"/>
       <c r="F8" s="1"/>
@@ -2833,10 +2833,10 @@
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="8" t="s">
-        <v>108</v>
+        <v>75</v>
       </c>
       <c r="D9" s="26" t="s">
-        <v>45</v>
+        <v>148</v>
       </c>
       <c r="E9" s="6"/>
       <c r="F9" s="1"/>
@@ -2851,10 +2851,10 @@
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="8" t="s">
-        <v>109</v>
+        <v>76</v>
       </c>
       <c r="D10" s="26" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="E10" s="6"/>
       <c r="F10" s="1"/>
@@ -2869,10 +2869,10 @@
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="8" t="s">
-        <v>110</v>
+        <v>77</v>
       </c>
       <c r="D11" s="26" t="s">
-        <v>47</v>
+        <v>149</v>
       </c>
       <c r="E11" s="6"/>
       <c r="F11" s="1"/>
@@ -3001,10 +3001,10 @@
         <v>3</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>111</v>
+        <v>78</v>
       </c>
       <c r="D20" s="17" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
@@ -3086,10 +3086,10 @@
         <v>5</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>93</v>
+        <v>60</v>
       </c>
       <c r="D26" s="23" t="s">
-        <v>21</v>
+        <v>142</v>
       </c>
       <c r="E26" s="6"/>
       <c r="F26" s="1"/>
@@ -3104,10 +3104,10 @@
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
       <c r="C27" s="8" t="s">
-        <v>94</v>
+        <v>61</v>
       </c>
       <c r="D27" s="24" t="s">
-        <v>18</v>
+        <v>143</v>
       </c>
       <c r="E27" s="6"/>
       <c r="F27" s="1"/>
@@ -3122,10 +3122,10 @@
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
       <c r="C28" s="8" t="s">
-        <v>100</v>
+        <v>67</v>
       </c>
       <c r="D28" s="24" t="s">
-        <v>19</v>
+        <v>144</v>
       </c>
       <c r="E28" s="6"/>
       <c r="F28" s="1"/>
@@ -3140,10 +3140,10 @@
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
       <c r="C29" s="8" t="s">
-        <v>101</v>
+        <v>68</v>
       </c>
       <c r="D29" s="24" t="s">
-        <v>20</v>
+        <v>145</v>
       </c>
       <c r="E29" s="6"/>
       <c r="F29" s="1"/>
@@ -3158,10 +3158,10 @@
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
       <c r="C30" s="8" t="s">
-        <v>102</v>
+        <v>69</v>
       </c>
       <c r="D30" s="26" t="s">
-        <v>22</v>
+        <v>146</v>
       </c>
       <c r="E30" s="6"/>
       <c r="F30" s="1"/>
@@ -3262,10 +3262,10 @@
         <v>4</v>
       </c>
       <c r="C37" s="7" t="s">
-        <v>112</v>
+        <v>79</v>
       </c>
       <c r="D37" s="30" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="E37" s="11">
         <v>0.5</v>
@@ -3289,10 +3289,10 @@
       <c r="A38" s="1"/>
       <c r="B38" s="1"/>
       <c r="C38" s="8" t="s">
-        <v>113</v>
+        <v>80</v>
       </c>
       <c r="D38" s="27" t="s">
-        <v>50</v>
+        <v>150</v>
       </c>
       <c r="E38" s="12">
         <v>1</v>
@@ -3316,10 +3316,10 @@
       <c r="A39" s="1"/>
       <c r="B39" s="1"/>
       <c r="C39" s="8" t="s">
-        <v>114</v>
+        <v>81</v>
       </c>
       <c r="D39" s="27" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="E39" s="11">
         <v>0.5</v>
@@ -3721,8 +3721,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:M65"/>
   <sheetViews>
-    <sheetView topLeftCell="A24" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D43" sqref="D43"/>
+    <sheetView topLeftCell="B21" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D40" sqref="D40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3754,7 +3754,7 @@
         <v>0</v>
       </c>
       <c r="C2" s="27" t="s">
-        <v>53</v>
+        <v>151</v>
       </c>
       <c r="D2" s="1"/>
       <c r="E2" s="6"/>
@@ -3850,10 +3850,10 @@
         <v>6</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>115</v>
+        <v>82</v>
       </c>
       <c r="D8" s="23" t="s">
-        <v>52</v>
+        <v>152</v>
       </c>
       <c r="E8" s="6"/>
       <c r="F8" s="1"/>
@@ -3868,10 +3868,10 @@
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="8" t="s">
-        <v>116</v>
+        <v>83</v>
       </c>
       <c r="D9" s="26" t="s">
-        <v>54</v>
+        <v>153</v>
       </c>
       <c r="E9" s="6"/>
       <c r="F9" s="1"/>
@@ -3886,10 +3886,10 @@
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="8" t="s">
-        <v>117</v>
+        <v>84</v>
       </c>
       <c r="D10" s="26" t="s">
-        <v>55</v>
+        <v>154</v>
       </c>
       <c r="E10" s="6"/>
       <c r="F10" s="1"/>
@@ -3904,10 +3904,10 @@
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="8" t="s">
-        <v>118</v>
+        <v>85</v>
       </c>
       <c r="D11" s="26" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="E11" s="6"/>
       <c r="F11" s="1"/>
@@ -4036,10 +4036,10 @@
         <v>3</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>119</v>
+        <v>86</v>
       </c>
       <c r="D20" s="28" t="s">
-        <v>82</v>
+        <v>155</v>
       </c>
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
@@ -4121,10 +4121,10 @@
         <v>5</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>120</v>
+        <v>87</v>
       </c>
       <c r="D26" s="23" t="s">
-        <v>21</v>
+        <v>142</v>
       </c>
       <c r="E26" s="6"/>
       <c r="F26" s="1"/>
@@ -4139,10 +4139,10 @@
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
       <c r="C27" s="8" t="s">
-        <v>121</v>
+        <v>88</v>
       </c>
       <c r="D27" s="24" t="s">
-        <v>18</v>
+        <v>143</v>
       </c>
       <c r="E27" s="6"/>
       <c r="F27" s="1"/>
@@ -4157,10 +4157,10 @@
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
       <c r="C28" s="8" t="s">
-        <v>122</v>
+        <v>89</v>
       </c>
       <c r="D28" s="24" t="s">
-        <v>19</v>
+        <v>144</v>
       </c>
       <c r="E28" s="6"/>
       <c r="F28" s="1"/>
@@ -4175,10 +4175,10 @@
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
       <c r="C29" s="8" t="s">
-        <v>123</v>
+        <v>90</v>
       </c>
       <c r="D29" s="24" t="s">
-        <v>20</v>
+        <v>145</v>
       </c>
       <c r="E29" s="6"/>
       <c r="F29" s="1"/>
@@ -4193,10 +4193,10 @@
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
       <c r="C30" s="8" t="s">
-        <v>124</v>
+        <v>91</v>
       </c>
       <c r="D30" s="26" t="s">
-        <v>22</v>
+        <v>146</v>
       </c>
       <c r="E30" s="6"/>
       <c r="F30" s="1"/>
@@ -4297,10 +4297,10 @@
         <v>4</v>
       </c>
       <c r="C37" s="7" t="s">
-        <v>125</v>
+        <v>92</v>
       </c>
       <c r="D37" s="28" t="s">
-        <v>73</v>
+        <v>46</v>
       </c>
       <c r="E37" s="11">
         <v>0.5</v>
@@ -4324,10 +4324,10 @@
       <c r="A38" s="1"/>
       <c r="B38" s="1"/>
       <c r="C38" s="8" t="s">
-        <v>126</v>
+        <v>93</v>
       </c>
       <c r="D38" s="26" t="s">
-        <v>74</v>
+        <v>47</v>
       </c>
       <c r="E38" s="12">
         <v>0.5</v>
@@ -4351,10 +4351,10 @@
       <c r="A39" s="1"/>
       <c r="B39" s="1"/>
       <c r="C39" s="8" t="s">
-        <v>127</v>
+        <v>94</v>
       </c>
       <c r="D39" s="26" t="s">
-        <v>75</v>
+        <v>48</v>
       </c>
       <c r="E39" s="11">
         <v>0.5</v>
@@ -4378,10 +4378,10 @@
       <c r="A40" s="1"/>
       <c r="B40" s="1"/>
       <c r="C40" s="8" t="s">
-        <v>128</v>
+        <v>95</v>
       </c>
       <c r="D40" s="26" t="s">
-        <v>76</v>
+        <v>49</v>
       </c>
       <c r="E40" s="12">
         <v>0.5</v>
@@ -4768,8 +4768,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:M65"/>
   <sheetViews>
-    <sheetView topLeftCell="A21" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C40" sqref="C40"/>
+    <sheetView topLeftCell="D22" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D40" sqref="D40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4801,7 +4801,7 @@
         <v>0</v>
       </c>
       <c r="C2" s="27" t="s">
-        <v>57</v>
+        <v>156</v>
       </c>
       <c r="D2" s="1"/>
       <c r="E2" s="6"/>
@@ -4897,10 +4897,10 @@
         <v>6</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>129</v>
+        <v>96</v>
       </c>
       <c r="D8" s="23" t="s">
-        <v>58</v>
+        <v>157</v>
       </c>
       <c r="E8" s="6"/>
       <c r="F8" s="1"/>
@@ -4915,10 +4915,10 @@
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="8" t="s">
-        <v>130</v>
+        <v>97</v>
       </c>
       <c r="D9" s="26" t="s">
-        <v>59</v>
+        <v>158</v>
       </c>
       <c r="E9" s="6"/>
       <c r="F9" s="1"/>
@@ -4933,10 +4933,10 @@
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="8" t="s">
-        <v>131</v>
+        <v>98</v>
       </c>
       <c r="D10" s="26" t="s">
-        <v>23</v>
+        <v>159</v>
       </c>
       <c r="E10" s="6"/>
       <c r="F10" s="1"/>
@@ -4951,10 +4951,10 @@
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="8" t="s">
-        <v>132</v>
+        <v>99</v>
       </c>
       <c r="D11" s="26" t="s">
-        <v>60</v>
+        <v>160</v>
       </c>
       <c r="E11" s="6"/>
       <c r="F11" s="1"/>
@@ -4969,10 +4969,10 @@
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="8" t="s">
-        <v>133</v>
+        <v>100</v>
       </c>
       <c r="D12" s="26" t="s">
-        <v>61</v>
+        <v>161</v>
       </c>
       <c r="E12" s="6"/>
       <c r="F12" s="1"/>
@@ -5087,10 +5087,10 @@
         <v>3</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>134</v>
+        <v>101</v>
       </c>
       <c r="D20" s="17" t="s">
-        <v>81</v>
+        <v>53</v>
       </c>
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
@@ -5172,10 +5172,10 @@
         <v>5</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>135</v>
+        <v>102</v>
       </c>
       <c r="D26" s="23" t="s">
-        <v>21</v>
+        <v>142</v>
       </c>
       <c r="E26" s="6"/>
       <c r="F26" s="1"/>
@@ -5190,10 +5190,10 @@
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
       <c r="C27" s="8" t="s">
-        <v>136</v>
+        <v>103</v>
       </c>
       <c r="D27" s="24" t="s">
-        <v>18</v>
+        <v>143</v>
       </c>
       <c r="E27" s="6"/>
       <c r="F27" s="1"/>
@@ -5208,10 +5208,10 @@
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
       <c r="C28" s="8" t="s">
-        <v>137</v>
+        <v>104</v>
       </c>
       <c r="D28" s="24" t="s">
-        <v>19</v>
+        <v>144</v>
       </c>
       <c r="E28" s="6"/>
       <c r="F28" s="1"/>
@@ -5226,10 +5226,10 @@
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
       <c r="C29" s="8" t="s">
-        <v>138</v>
+        <v>105</v>
       </c>
       <c r="D29" s="24" t="s">
-        <v>20</v>
+        <v>145</v>
       </c>
       <c r="E29" s="6"/>
       <c r="F29" s="1"/>
@@ -5244,10 +5244,10 @@
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
       <c r="C30" s="8" t="s">
-        <v>139</v>
-      </c>
-      <c r="D30" s="24" t="s">
-        <v>22</v>
+        <v>106</v>
+      </c>
+      <c r="D30" s="26" t="s">
+        <v>146</v>
       </c>
       <c r="E30" s="6"/>
       <c r="F30" s="1"/>
@@ -5348,10 +5348,10 @@
         <v>4</v>
       </c>
       <c r="C37" s="7" t="s">
-        <v>140</v>
+        <v>107</v>
       </c>
       <c r="D37" s="28" t="s">
-        <v>77</v>
+        <v>50</v>
       </c>
       <c r="E37" s="11">
         <v>0.5</v>
@@ -5375,10 +5375,10 @@
       <c r="A38" s="1"/>
       <c r="B38" s="1"/>
       <c r="C38" s="8" t="s">
-        <v>141</v>
+        <v>108</v>
       </c>
       <c r="D38" s="26" t="s">
-        <v>78</v>
+        <v>51</v>
       </c>
       <c r="E38" s="12">
         <v>0.5</v>
@@ -5402,10 +5402,10 @@
       <c r="A39" s="1"/>
       <c r="B39" s="1"/>
       <c r="C39" s="8" t="s">
-        <v>142</v>
+        <v>109</v>
       </c>
       <c r="D39" s="26" t="s">
-        <v>79</v>
+        <v>52</v>
       </c>
       <c r="E39" s="12">
         <v>0.5</v>
@@ -5429,10 +5429,10 @@
       <c r="A40" s="1"/>
       <c r="B40" s="1"/>
       <c r="C40" s="8" t="s">
-        <v>143</v>
+        <v>110</v>
       </c>
       <c r="D40" s="26" t="s">
-        <v>80</v>
+        <v>162</v>
       </c>
       <c r="E40" s="12">
         <v>0.5</v>
@@ -5819,8 +5819,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:M65"/>
   <sheetViews>
-    <sheetView topLeftCell="B27" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
-      <selection activeCell="C39" sqref="C39"/>
+    <sheetView topLeftCell="D24" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
+      <selection activeCell="D39" sqref="D39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5852,7 +5852,7 @@
         <v>0</v>
       </c>
       <c r="C2" s="27" t="s">
-        <v>62</v>
+        <v>40</v>
       </c>
       <c r="D2" s="1"/>
       <c r="E2" s="6"/>
@@ -5948,10 +5948,10 @@
         <v>6</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>144</v>
+        <v>111</v>
       </c>
       <c r="D8" s="28" t="s">
-        <v>63</v>
+        <v>163</v>
       </c>
       <c r="E8" s="6"/>
       <c r="F8" s="1"/>
@@ -5966,10 +5966,10 @@
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="8" t="s">
-        <v>145</v>
+        <v>112</v>
       </c>
       <c r="D9" s="26" t="s">
-        <v>64</v>
+        <v>164</v>
       </c>
       <c r="E9" s="6"/>
       <c r="F9" s="1"/>
@@ -5984,10 +5984,10 @@
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="8" t="s">
-        <v>146</v>
+        <v>113</v>
       </c>
       <c r="D10" s="24" t="s">
-        <v>66</v>
+        <v>42</v>
       </c>
       <c r="E10" s="6"/>
       <c r="F10" s="1"/>
@@ -6002,10 +6002,10 @@
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="8" t="s">
-        <v>147</v>
+        <v>114</v>
       </c>
       <c r="D11" s="24" t="s">
-        <v>65</v>
+        <v>41</v>
       </c>
       <c r="E11" s="6"/>
       <c r="F11" s="1"/>
@@ -6020,10 +6020,10 @@
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="8" t="s">
-        <v>148</v>
+        <v>115</v>
       </c>
       <c r="D12" s="24" t="s">
-        <v>67</v>
+        <v>43</v>
       </c>
       <c r="E12" s="6"/>
       <c r="F12" s="1"/>
@@ -6138,10 +6138,10 @@
         <v>3</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>149</v>
+        <v>116</v>
       </c>
       <c r="D20" s="28" t="s">
-        <v>83</v>
+        <v>165</v>
       </c>
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
@@ -6223,10 +6223,10 @@
         <v>5</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>150</v>
+        <v>117</v>
       </c>
       <c r="D26" s="23" t="s">
-        <v>21</v>
+        <v>142</v>
       </c>
       <c r="E26" s="6"/>
       <c r="F26" s="1"/>
@@ -6241,10 +6241,10 @@
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
       <c r="C27" s="8" t="s">
-        <v>151</v>
+        <v>118</v>
       </c>
       <c r="D27" s="24" t="s">
-        <v>18</v>
+        <v>143</v>
       </c>
       <c r="E27" s="6"/>
       <c r="F27" s="1"/>
@@ -6259,10 +6259,10 @@
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
       <c r="C28" s="8" t="s">
-        <v>152</v>
+        <v>119</v>
       </c>
       <c r="D28" s="24" t="s">
-        <v>19</v>
+        <v>144</v>
       </c>
       <c r="E28" s="6"/>
       <c r="F28" s="1"/>
@@ -6277,10 +6277,10 @@
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
       <c r="C29" s="8" t="s">
-        <v>153</v>
+        <v>120</v>
       </c>
       <c r="D29" s="24" t="s">
-        <v>20</v>
+        <v>145</v>
       </c>
       <c r="E29" s="6"/>
       <c r="F29" s="1"/>
@@ -6295,10 +6295,10 @@
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
       <c r="C30" s="8" t="s">
-        <v>154</v>
+        <v>121</v>
       </c>
       <c r="D30" s="26" t="s">
-        <v>22</v>
+        <v>146</v>
       </c>
       <c r="E30" s="6"/>
       <c r="F30" s="1"/>
@@ -6399,10 +6399,10 @@
         <v>4</v>
       </c>
       <c r="C37" s="7" t="s">
-        <v>155</v>
+        <v>122</v>
       </c>
       <c r="D37" s="28" t="s">
-        <v>84</v>
+        <v>54</v>
       </c>
       <c r="E37" s="11">
         <v>0.5</v>
@@ -6426,10 +6426,10 @@
       <c r="A38" s="1"/>
       <c r="B38" s="1"/>
       <c r="C38" s="8" t="s">
-        <v>156</v>
+        <v>123</v>
       </c>
       <c r="D38" s="26" t="s">
-        <v>85</v>
+        <v>166</v>
       </c>
       <c r="E38" s="11">
         <v>1</v>
@@ -6453,10 +6453,10 @@
       <c r="A39" s="1"/>
       <c r="B39" s="1"/>
       <c r="C39" s="8" t="s">
-        <v>157</v>
+        <v>124</v>
       </c>
       <c r="D39" s="24" t="s">
-        <v>86</v>
+        <v>55</v>
       </c>
       <c r="E39" s="11">
         <v>0.5</v>
@@ -6858,8 +6858,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1EA8894A-2658-4399-B816-54EABD0BE9FC}">
   <dimension ref="A1:M65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
-      <selection activeCell="D42" sqref="D42"/>
+    <sheetView tabSelected="1" topLeftCell="D27" workbookViewId="0">
+      <selection activeCell="D43" sqref="D43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6891,7 +6891,7 @@
         <v>0</v>
       </c>
       <c r="C2" s="27" t="s">
-        <v>68</v>
+        <v>167</v>
       </c>
       <c r="D2" s="1"/>
       <c r="E2" s="6"/>
@@ -6987,10 +6987,10 @@
         <v>6</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>158</v>
+        <v>125</v>
       </c>
       <c r="D8" s="28" t="s">
-        <v>69</v>
+        <v>168</v>
       </c>
       <c r="E8" s="6"/>
       <c r="F8" s="1"/>
@@ -7005,10 +7005,10 @@
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="8" t="s">
-        <v>159</v>
+        <v>126</v>
       </c>
       <c r="D9" s="26" t="s">
-        <v>70</v>
+        <v>44</v>
       </c>
       <c r="E9" s="6"/>
       <c r="F9" s="1"/>
@@ -7023,10 +7023,10 @@
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="8" t="s">
-        <v>160</v>
+        <v>127</v>
       </c>
       <c r="D10" s="24" t="s">
-        <v>71</v>
+        <v>169</v>
       </c>
       <c r="E10" s="6"/>
       <c r="F10" s="1"/>
@@ -7041,10 +7041,10 @@
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="8" t="s">
-        <v>161</v>
+        <v>128</v>
       </c>
       <c r="D11" s="24" t="s">
-        <v>72</v>
+        <v>45</v>
       </c>
       <c r="E11" s="6"/>
       <c r="F11" s="1"/>
@@ -7173,10 +7173,10 @@
         <v>3</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>162</v>
+        <v>129</v>
       </c>
       <c r="D20" s="28" t="s">
-        <v>87</v>
+        <v>56</v>
       </c>
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
@@ -7258,10 +7258,10 @@
         <v>5</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>163</v>
+        <v>130</v>
       </c>
       <c r="D26" s="23" t="s">
-        <v>21</v>
+        <v>142</v>
       </c>
       <c r="E26" s="6"/>
       <c r="F26" s="1"/>
@@ -7276,10 +7276,10 @@
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
       <c r="C27" s="8" t="s">
-        <v>164</v>
+        <v>131</v>
       </c>
       <c r="D27" s="24" t="s">
-        <v>18</v>
+        <v>143</v>
       </c>
       <c r="E27" s="6"/>
       <c r="F27" s="1"/>
@@ -7294,10 +7294,10 @@
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
       <c r="C28" s="8" t="s">
-        <v>165</v>
+        <v>132</v>
       </c>
       <c r="D28" s="24" t="s">
-        <v>19</v>
+        <v>144</v>
       </c>
       <c r="E28" s="6"/>
       <c r="F28" s="1"/>
@@ -7312,10 +7312,10 @@
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
       <c r="C29" s="8" t="s">
-        <v>166</v>
+        <v>133</v>
       </c>
       <c r="D29" s="24" t="s">
-        <v>20</v>
+        <v>145</v>
       </c>
       <c r="E29" s="6"/>
       <c r="F29" s="1"/>
@@ -7330,10 +7330,10 @@
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
       <c r="C30" s="8" t="s">
-        <v>167</v>
+        <v>134</v>
       </c>
       <c r="D30" s="26" t="s">
-        <v>22</v>
+        <v>146</v>
       </c>
       <c r="E30" s="6"/>
       <c r="F30" s="1"/>
@@ -7434,10 +7434,10 @@
         <v>4</v>
       </c>
       <c r="C37" s="7" t="s">
-        <v>168</v>
+        <v>135</v>
       </c>
       <c r="D37" s="28" t="s">
-        <v>88</v>
+        <v>57</v>
       </c>
       <c r="E37" s="11">
         <v>0.5</v>
@@ -7461,10 +7461,10 @@
       <c r="A38" s="1"/>
       <c r="B38" s="1"/>
       <c r="C38" s="8" t="s">
-        <v>169</v>
+        <v>136</v>
       </c>
       <c r="D38" s="26" t="s">
-        <v>89</v>
+        <v>58</v>
       </c>
       <c r="E38" s="11">
         <v>0.5</v>
@@ -7488,10 +7488,10 @@
       <c r="A39" s="1"/>
       <c r="B39" s="1"/>
       <c r="C39" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="D39" s="26" t="s">
         <v>170</v>
-      </c>
-      <c r="D39" s="26" t="s">
-        <v>90</v>
       </c>
       <c r="E39" s="11">
         <v>0.5</v>
@@ -7515,10 +7515,10 @@
       <c r="A40" s="1"/>
       <c r="B40" s="1"/>
       <c r="C40" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="D40" s="26" t="s">
         <v>171</v>
-      </c>
-      <c r="D40" s="26" t="s">
-        <v>91</v>
       </c>
       <c r="E40" s="11">
         <v>0.5</v>
@@ -7900,21 +7900,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x01010066362C18D9728B45B978E0202B482283" ma:contentTypeVersion="6" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="cc541c24bb563767f1b173ccc5d750be">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="bbe4718c-7bcc-499a-b45a-2c898923f758" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="e9100314d28dd3083d9f7fd26077858e" ns2:_="">
     <xsd:import namespace="bbe4718c-7bcc-499a-b45a-2c898923f758"/>
@@ -8072,31 +8057,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B6484B29-A119-444E-B32B-DDD7B740B41D}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="bbe4718c-7bcc-499a-b45a-2c898923f758"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{194C63B9-6D56-41B8-852C-30E254E0B949}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{683EB964-DBA5-4BF7-8665-4ABAC26A7728}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -8112,4 +8088,28 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{194C63B9-6D56-41B8-852C-30E254E0B949}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B6484B29-A119-444E-B32B-DDD7B740B41D}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="bbe4718c-7bcc-499a-b45a-2c898923f758"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>